--- a/input/expert/输入-专家.xlsx
+++ b/input/expert/输入-专家.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwy/Sites/agenda-tool/input/expert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A7154-7EC3-7F48-B701-94CEECF1E93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9743C2-8F96-AE4F-8AC1-9ED8F11EEB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14040" yWindow="2640" windowWidth="27840" windowHeight="16940" xr2:uid="{79E484B9-A4F4-5E49-9FD0-108BE7CC7003}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>分会场名称</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>李群益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicola Segata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特伦托大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rbase.chinagut.cn/base/authorBase/ae0f43e5b3cf4f89820ef2bcb2c7a912/1?authorName=Nicola%20Segata&amp;authorUuid=eb6a07a847344dc8ae06f87e77b3e8a9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -116,6 +128,15 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,12 +155,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,9 +173,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,11 +491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F859CF-1A6F-7243-BA18-049F9C8588D9}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:B5"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -545,8 +573,25 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{BE4E61FF-DD63-D547-A224-E2202B101005}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>